--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H2">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>11.666305</v>
       </c>
       <c r="O2">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="P2">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="Q2">
-        <v>3.402822657375556</v>
+        <v>5.958141403001666</v>
       </c>
       <c r="R2">
-        <v>30.62540391638</v>
+        <v>53.62327262701499</v>
       </c>
       <c r="S2">
-        <v>0.01446917708744023</v>
+        <v>0.04320121239262536</v>
       </c>
       <c r="T2">
-        <v>0.01446917708744023</v>
+        <v>0.04320121239262534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H3">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I3">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J3">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.742066666666667</v>
+        <v>2.316983333333333</v>
       </c>
       <c r="N3">
-        <v>8.2262</v>
+        <v>6.950950000000001</v>
       </c>
       <c r="O3">
-        <v>0.1923540942798824</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="P3">
-        <v>0.1923540942798823</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="Q3">
-        <v>2.399414359911111</v>
+        <v>3.549945161316667</v>
       </c>
       <c r="R3">
-        <v>21.5947292392</v>
+        <v>31.94950645185</v>
       </c>
       <c r="S3">
-        <v>0.010202574384666</v>
+        <v>0.02573989513222218</v>
       </c>
       <c r="T3">
-        <v>0.010202574384666</v>
+        <v>0.02573989513222217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H4">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I4">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J4">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.624472</v>
+        <v>1.806204333333334</v>
       </c>
       <c r="N4">
-        <v>22.873416</v>
+        <v>5.418613000000001</v>
       </c>
       <c r="O4">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="P4">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="Q4">
-        <v>6.671707812917334</v>
+        <v>2.767359713477667</v>
       </c>
       <c r="R4">
-        <v>60.045370316256</v>
+        <v>24.906237421299</v>
       </c>
       <c r="S4">
-        <v>0.02836883715098215</v>
+        <v>0.0200655349818508</v>
       </c>
       <c r="T4">
-        <v>0.02836883715098215</v>
+        <v>0.02006553498185079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>31.85826</v>
       </c>
       <c r="I5">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J5">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>11.666305</v>
       </c>
       <c r="O5">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="P5">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="Q5">
         <v>41.29646421436667</v>
@@ -759,10 +759,10 @@
         <v>371.6681779293</v>
       </c>
       <c r="S5">
-        <v>0.1755971186178872</v>
+        <v>0.2994318531430812</v>
       </c>
       <c r="T5">
-        <v>0.1755971186178872</v>
+        <v>0.2994318531430811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J6">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.742066666666667</v>
+        <v>2.316983333333333</v>
       </c>
       <c r="N6">
-        <v>8.2262</v>
+        <v>6.950950000000001</v>
       </c>
       <c r="O6">
-        <v>0.1923540942798824</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="P6">
-        <v>0.1923540942798823</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="Q6">
-        <v>29.11915760133333</v>
+        <v>24.60501914966667</v>
       </c>
       <c r="R6">
-        <v>262.072418412</v>
+        <v>221.445172347</v>
       </c>
       <c r="S6">
-        <v>0.1238178683974458</v>
+        <v>0.1784057454013846</v>
       </c>
       <c r="T6">
-        <v>0.1238178683974458</v>
+        <v>0.1784057454013846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J7">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.624472</v>
+        <v>1.806204333333334</v>
       </c>
       <c r="N7">
-        <v>22.873416</v>
+        <v>5.418613000000001</v>
       </c>
       <c r="O7">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="P7">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="Q7">
-        <v>80.96747044624</v>
+        <v>19.18084242148667</v>
       </c>
       <c r="R7">
-        <v>728.70723401616</v>
+        <v>172.62758179338</v>
       </c>
       <c r="S7">
-        <v>0.3442826106936412</v>
+        <v>0.1390761969668366</v>
       </c>
       <c r="T7">
-        <v>0.3442826106936411</v>
+        <v>0.1390761969668366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H8">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I8">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J8">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>11.666305</v>
       </c>
       <c r="O8">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="P8">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="Q8">
-        <v>17.88896949882778</v>
+        <v>19.06376770858389</v>
       </c>
       <c r="R8">
-        <v>161.00072548945</v>
+        <v>171.573909377255</v>
       </c>
       <c r="S8">
-        <v>0.07606587049998859</v>
+        <v>0.1382273131965772</v>
       </c>
       <c r="T8">
-        <v>0.07606587049998857</v>
+        <v>0.1382273131965772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H9">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I9">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J9">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.742066666666667</v>
+        <v>2.316983333333333</v>
       </c>
       <c r="N9">
-        <v>8.2262</v>
+        <v>6.950950000000001</v>
       </c>
       <c r="O9">
-        <v>0.1923540942798824</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="P9">
-        <v>0.1923540942798823</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="Q9">
-        <v>12.61395453755556</v>
+        <v>11.35846321127222</v>
       </c>
       <c r="R9">
-        <v>113.525590838</v>
+        <v>102.22616890145</v>
       </c>
       <c r="S9">
-        <v>0.0536359253342859</v>
+        <v>0.0823577938913605</v>
       </c>
       <c r="T9">
-        <v>0.05363592533428588</v>
+        <v>0.08235779389136048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H10">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I10">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J10">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.624472</v>
+        <v>1.806204333333334</v>
       </c>
       <c r="N10">
-        <v>22.873416</v>
+        <v>5.418613000000001</v>
       </c>
       <c r="O10">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="P10">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="Q10">
-        <v>35.07381653042667</v>
+        <v>8.854489877875888</v>
       </c>
       <c r="R10">
-        <v>315.66434877384</v>
+        <v>79.690408900883</v>
       </c>
       <c r="S10">
-        <v>0.1491377346424911</v>
+        <v>0.06420201736899944</v>
       </c>
       <c r="T10">
-        <v>0.1491377346424911</v>
+        <v>0.06420201736899941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H11">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I11">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J11">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.666305</v>
       </c>
       <c r="O11">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="P11">
-        <v>0.2727944290034114</v>
+        <v>0.4853706552224367</v>
       </c>
       <c r="Q11">
-        <v>1.566813279134444</v>
+        <v>0.6220396050633332</v>
       </c>
       <c r="R11">
-        <v>14.10131951221</v>
+        <v>5.598356445569999</v>
       </c>
       <c r="S11">
-        <v>0.006662262798095371</v>
+        <v>0.004510276490153039</v>
       </c>
       <c r="T11">
-        <v>0.006662262798095371</v>
+        <v>0.004510276490153038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H12">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I12">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J12">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.742066666666667</v>
+        <v>2.316983333333333</v>
       </c>
       <c r="N12">
-        <v>8.2262</v>
+        <v>6.950950000000001</v>
       </c>
       <c r="O12">
-        <v>0.1923540942798824</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="P12">
-        <v>0.1923540942798823</v>
+        <v>0.289190721133932</v>
       </c>
       <c r="Q12">
-        <v>1.104798768488889</v>
+        <v>0.3706200200333333</v>
       </c>
       <c r="R12">
-        <v>9.943188916399999</v>
+        <v>3.3355801803</v>
       </c>
       <c r="S12">
-        <v>0.004697726163484681</v>
+        <v>0.002687286708964772</v>
       </c>
       <c r="T12">
-        <v>0.00469772616348468</v>
+        <v>0.002687286708964772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H13">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I13">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J13">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.624472</v>
+        <v>1.806204333333334</v>
       </c>
       <c r="N13">
-        <v>22.873416</v>
+        <v>5.418613000000001</v>
       </c>
       <c r="O13">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="P13">
-        <v>0.5348514767167063</v>
+        <v>0.2254386236436313</v>
       </c>
       <c r="Q13">
-        <v>3.071955681594666</v>
+        <v>0.2889168327513333</v>
       </c>
       <c r="R13">
-        <v>27.64760113435199</v>
+        <v>2.600251494762</v>
       </c>
       <c r="S13">
-        <v>0.01306229422959193</v>
+        <v>0.002094874325944472</v>
       </c>
       <c r="T13">
-        <v>0.01306229422959192</v>
+        <v>0.002094874325944472</v>
       </c>
     </row>
   </sheetData>
